--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl13-Cxcr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cxcl13-Cxcr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Cxcr5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>48.06441766666666</v>
+        <v>0.2087556666666667</v>
       </c>
       <c r="H2">
-        <v>144.193253</v>
+        <v>0.626267</v>
       </c>
       <c r="I2">
-        <v>0.9481034702552612</v>
+        <v>0.004212716022507852</v>
       </c>
       <c r="J2">
-        <v>0.950244165855522</v>
+        <v>0.004233737959305679</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.599115</v>
+        <v>0.14938</v>
       </c>
       <c r="N2">
-        <v>1.797345</v>
+        <v>0.44814</v>
       </c>
       <c r="O2">
-        <v>0.7150976396360984</v>
+        <v>0.2842945259315509</v>
       </c>
       <c r="P2">
-        <v>0.7150976396360983</v>
+        <v>0.3365346706407406</v>
       </c>
       <c r="Q2">
-        <v>28.796113590365</v>
+        <v>0.03118392148666667</v>
       </c>
       <c r="R2">
-        <v>259.165022313285</v>
+        <v>0.28065529338</v>
       </c>
       <c r="S2">
-        <v>0.6779865537103311</v>
+        <v>0.001197652104503118</v>
       </c>
       <c r="T2">
-        <v>0.6795173600812568</v>
+        <v>0.001424799609714138</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>48.06441766666666</v>
+        <v>0.2087556666666667</v>
       </c>
       <c r="H3">
-        <v>144.193253</v>
+        <v>0.626267</v>
       </c>
       <c r="I3">
-        <v>0.9481034702552612</v>
+        <v>0.004212716022507852</v>
       </c>
       <c r="J3">
-        <v>0.950244165855522</v>
+        <v>0.004233737959305679</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,28 +620,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.14938</v>
+        <v>0.131369</v>
       </c>
       <c r="N3">
-        <v>0.44814</v>
+        <v>0.394107</v>
       </c>
       <c r="O3">
-        <v>0.1782984659186306</v>
+        <v>0.2500166526784168</v>
       </c>
       <c r="P3">
-        <v>0.1782984659186306</v>
+        <v>0.2959581145227169</v>
       </c>
       <c r="Q3">
-        <v>7.179862711046666</v>
+        <v>0.02742402317433333</v>
       </c>
       <c r="R3">
-        <v>64.61876439942</v>
+        <v>0.246816208569</v>
       </c>
       <c r="S3">
-        <v>0.1690453942786431</v>
+        <v>0.001053249158632147</v>
       </c>
       <c r="T3">
-        <v>0.1694270770201683</v>
+        <v>0.001253009103819364</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>48.06441766666666</v>
+        <v>0.2087556666666667</v>
       </c>
       <c r="H4">
-        <v>144.193253</v>
+        <v>0.626267</v>
       </c>
       <c r="I4">
-        <v>0.9481034702552612</v>
+        <v>0.004212716022507852</v>
       </c>
       <c r="J4">
-        <v>0.950244165855522</v>
+        <v>0.004233737959305679</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.08931366666666667</v>
+        <v>0.244692</v>
       </c>
       <c r="N4">
-        <v>0.267941</v>
+        <v>0.489384</v>
       </c>
       <c r="O4">
-        <v>0.1066038944452711</v>
+        <v>0.4656888213900324</v>
       </c>
       <c r="P4">
-        <v>0.1066038944452711</v>
+        <v>0.3675072148365425</v>
       </c>
       <c r="Q4">
-        <v>4.292809378008111</v>
+        <v>0.051080841588</v>
       </c>
       <c r="R4">
-        <v>38.635284402073</v>
+        <v>0.306485049528</v>
       </c>
       <c r="S4">
-        <v>0.1010715222662871</v>
+        <v>0.001961814759372587</v>
       </c>
       <c r="T4">
-        <v>0.1012997287540968</v>
+        <v>0.001555929245772177</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.755309666666667</v>
+        <v>48.06441766666666</v>
       </c>
       <c r="H5">
-        <v>5.265929</v>
+        <v>144.193253</v>
       </c>
       <c r="I5">
-        <v>0.03462468218965708</v>
+        <v>0.9699460888896084</v>
       </c>
       <c r="J5">
-        <v>0.03470286026530938</v>
+        <v>0.9747862312749473</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.599115</v>
+        <v>0.14938</v>
       </c>
       <c r="N5">
-        <v>1.797345</v>
+        <v>0.44814</v>
       </c>
       <c r="O5">
-        <v>0.7150976396360984</v>
+        <v>0.2842945259315509</v>
       </c>
       <c r="P5">
-        <v>0.7150976396360983</v>
+        <v>0.3365346706407406</v>
       </c>
       <c r="Q5">
-        <v>1.051632350945</v>
+        <v>7.179862711046666</v>
       </c>
       <c r="R5">
-        <v>9.464691158505</v>
+        <v>64.61876439942</v>
       </c>
       <c r="S5">
-        <v>0.02476002850697383</v>
+        <v>0.2757503635200331</v>
       </c>
       <c r="T5">
-        <v>0.02481593346434408</v>
+        <v>0.3280493632872432</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.755309666666667</v>
+        <v>48.06441766666666</v>
       </c>
       <c r="H6">
-        <v>5.265929</v>
+        <v>144.193253</v>
       </c>
       <c r="I6">
-        <v>0.03462468218965708</v>
+        <v>0.9699460888896084</v>
       </c>
       <c r="J6">
-        <v>0.03470286026530938</v>
+        <v>0.9747862312749473</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.14938</v>
+        <v>0.131369</v>
       </c>
       <c r="N6">
-        <v>0.44814</v>
+        <v>0.394107</v>
       </c>
       <c r="O6">
-        <v>0.1782984659186306</v>
+        <v>0.2500166526784168</v>
       </c>
       <c r="P6">
-        <v>0.1782984659186306</v>
+        <v>0.2959581145227169</v>
       </c>
       <c r="Q6">
-        <v>0.2622081580066666</v>
+        <v>6.314174484452332</v>
       </c>
       <c r="R6">
-        <v>2.35987342206</v>
+        <v>56.827570360071</v>
       </c>
       <c r="S6">
-        <v>0.006173527717335989</v>
+        <v>0.242502674422702</v>
       </c>
       <c r="T6">
-        <v>0.006187466748293264</v>
+        <v>0.2884958950708384</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.755309666666667</v>
+        <v>48.06441766666666</v>
       </c>
       <c r="H7">
-        <v>5.265929</v>
+        <v>144.193253</v>
       </c>
       <c r="I7">
-        <v>0.03462468218965708</v>
+        <v>0.9699460888896084</v>
       </c>
       <c r="J7">
-        <v>0.03470286026530938</v>
+        <v>0.9747862312749473</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.08931366666666667</v>
+        <v>0.244692</v>
       </c>
       <c r="N7">
-        <v>0.267941</v>
+        <v>0.489384</v>
       </c>
       <c r="O7">
-        <v>0.1066038944452711</v>
+        <v>0.4656888213900324</v>
       </c>
       <c r="P7">
-        <v>0.1066038944452711</v>
+        <v>0.3675072148365425</v>
       </c>
       <c r="Q7">
-        <v>0.1567731424654444</v>
+        <v>11.760978487692</v>
       </c>
       <c r="R7">
-        <v>1.410958282189</v>
+        <v>70.565870926152</v>
       </c>
       <c r="S7">
-        <v>0.003691125965347263</v>
+        <v>0.4516930509468734</v>
       </c>
       <c r="T7">
-        <v>0.003699460052672035</v>
+        <v>0.3582409729168657</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.342617</v>
+        <v>0.245141</v>
       </c>
       <c r="H8">
-        <v>0.685234</v>
+        <v>0.735423</v>
       </c>
       <c r="I8">
-        <v>0.006758354359377276</v>
+        <v>0.004946976697512072</v>
       </c>
       <c r="J8">
-        <v>0.004515742569077367</v>
+        <v>0.004971662679410635</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.599115</v>
+        <v>0.14938</v>
       </c>
       <c r="N8">
-        <v>1.797345</v>
+        <v>0.44814</v>
       </c>
       <c r="O8">
-        <v>0.7150976396360984</v>
+        <v>0.2842945259315509</v>
       </c>
       <c r="P8">
-        <v>0.7150976396360983</v>
+        <v>0.3365346706407406</v>
       </c>
       <c r="Q8">
-        <v>0.205266983955</v>
+        <v>0.03661916258</v>
       </c>
       <c r="R8">
-        <v>1.23160190373</v>
+        <v>0.32957246322</v>
       </c>
       <c r="S8">
-        <v>0.004832883250215026</v>
+        <v>0.001406398395013623</v>
       </c>
       <c r="T8">
-        <v>0.003229196852351476</v>
+        <v>0.00167313686235232</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.342617</v>
+        <v>0.245141</v>
       </c>
       <c r="H9">
-        <v>0.685234</v>
+        <v>0.735423</v>
       </c>
       <c r="I9">
-        <v>0.006758354359377276</v>
+        <v>0.004946976697512072</v>
       </c>
       <c r="J9">
-        <v>0.004515742569077367</v>
+        <v>0.004971662679410635</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.14938</v>
+        <v>0.131369</v>
       </c>
       <c r="N9">
-        <v>0.44814</v>
+        <v>0.394107</v>
       </c>
       <c r="O9">
-        <v>0.1782984659186306</v>
+        <v>0.2500166526784168</v>
       </c>
       <c r="P9">
-        <v>0.1782984659186306</v>
+        <v>0.2959581145227169</v>
       </c>
       <c r="Q9">
-        <v>0.05118012746</v>
+        <v>0.032203928029</v>
       </c>
       <c r="R9">
-        <v>0.30708076476</v>
+        <v>0.289835352261</v>
       </c>
       <c r="S9">
-        <v>0.001205004214411458</v>
+        <v>0.001236826554790097</v>
       </c>
       <c r="T9">
-        <v>0.0008051499725499503</v>
+        <v>0.00147140391264133</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1033,49 +1033,49 @@
         <v>1</v>
       </c>
       <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.245141</v>
+      </c>
+      <c r="H10">
+        <v>0.735423</v>
+      </c>
+      <c r="I10">
+        <v>0.004946976697512072</v>
+      </c>
+      <c r="J10">
+        <v>0.004971662679410635</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>0.5</v>
       </c>
-      <c r="G10">
-        <v>0.342617</v>
-      </c>
-      <c r="H10">
-        <v>0.685234</v>
-      </c>
-      <c r="I10">
-        <v>0.006758354359377276</v>
-      </c>
-      <c r="J10">
-        <v>0.004515742569077367</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M10">
-        <v>0.08931366666666667</v>
+        <v>0.244692</v>
       </c>
       <c r="N10">
-        <v>0.267941</v>
+        <v>0.489384</v>
       </c>
       <c r="O10">
-        <v>0.1066038944452711</v>
+        <v>0.4656888213900324</v>
       </c>
       <c r="P10">
-        <v>0.1066038944452711</v>
+        <v>0.3675072148365425</v>
       </c>
       <c r="Q10">
-        <v>0.03060038053233333</v>
+        <v>0.059984041572</v>
       </c>
       <c r="R10">
-        <v>0.183602283194</v>
+        <v>0.359904249432</v>
       </c>
       <c r="S10">
-        <v>0.0007204668947507932</v>
+        <v>0.002303751747708352</v>
       </c>
       <c r="T10">
-        <v>0.0004813957441759411</v>
+        <v>0.001827121904416985</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.5329849999999999</v>
+        <v>0.7381525</v>
       </c>
       <c r="H11">
-        <v>1.598955</v>
+        <v>1.476305</v>
       </c>
       <c r="I11">
-        <v>0.01051349319570452</v>
+        <v>0.01489601175123818</v>
       </c>
       <c r="J11">
-        <v>0.0105372313100913</v>
+        <v>0.009980229707158081</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.599115</v>
+        <v>0.14938</v>
       </c>
       <c r="N11">
-        <v>1.797345</v>
+        <v>0.44814</v>
       </c>
       <c r="O11">
-        <v>0.7150976396360984</v>
+        <v>0.2842945259315509</v>
       </c>
       <c r="P11">
-        <v>0.7150976396360983</v>
+        <v>0.3365346706407406</v>
       </c>
       <c r="Q11">
-        <v>0.3193193082749999</v>
+        <v>0.11026522045</v>
       </c>
       <c r="R11">
-        <v>2.873873774475</v>
+        <v>0.6615913227</v>
       </c>
       <c r="S11">
-        <v>0.007518174168578486</v>
+        <v>0.00423485459908907</v>
       </c>
       <c r="T11">
-        <v>0.007535149238145879</v>
+        <v>0.003358693317417379</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.5329849999999999</v>
+        <v>0.7381525</v>
       </c>
       <c r="H12">
-        <v>1.598955</v>
+        <v>1.476305</v>
       </c>
       <c r="I12">
-        <v>0.01051349319570452</v>
+        <v>0.01489601175123818</v>
       </c>
       <c r="J12">
-        <v>0.0105372313100913</v>
+        <v>0.009980229707158081</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.14938</v>
+        <v>0.131369</v>
       </c>
       <c r="N12">
-        <v>0.44814</v>
+        <v>0.394107</v>
       </c>
       <c r="O12">
-        <v>0.1782984659186306</v>
+        <v>0.2500166526784168</v>
       </c>
       <c r="P12">
-        <v>0.1782984659186306</v>
+        <v>0.2959581145227169</v>
       </c>
       <c r="Q12">
-        <v>0.07961729929999999</v>
+        <v>0.09697035577249999</v>
       </c>
       <c r="R12">
-        <v>0.7165556936999999</v>
+        <v>0.581822134635</v>
       </c>
       <c r="S12">
-        <v>0.001874539708240078</v>
+        <v>0.003724250996302931</v>
       </c>
       <c r="T12">
-        <v>0.00187877217761904</v>
+        <v>0.002953729966634112</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -1219,49 +1219,235 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.5329849999999999</v>
+        <v>0.7381525</v>
       </c>
       <c r="H13">
-        <v>1.598955</v>
+        <v>1.476305</v>
       </c>
       <c r="I13">
-        <v>0.01051349319570452</v>
+        <v>0.01489601175123818</v>
       </c>
       <c r="J13">
-        <v>0.0105372313100913</v>
+        <v>0.009980229707158081</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>0.08931366666666667</v>
+        <v>0.244692</v>
       </c>
       <c r="N13">
-        <v>0.267941</v>
+        <v>0.489384</v>
       </c>
       <c r="O13">
-        <v>0.1066038944452711</v>
+        <v>0.4656888213900324</v>
       </c>
       <c r="P13">
-        <v>0.1066038944452711</v>
+        <v>0.3675072148365425</v>
       </c>
       <c r="Q13">
-        <v>0.04760284462833333</v>
+        <v>0.18062001153</v>
       </c>
       <c r="R13">
-        <v>0.4284256016549999</v>
+        <v>0.7224800461199999</v>
       </c>
       <c r="S13">
-        <v>0.001120779318885961</v>
+        <v>0.006936906155846182</v>
       </c>
       <c r="T13">
-        <v>0.001123309894326379</v>
+        <v>0.003667806423106589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.2972333333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.8917</v>
+      </c>
+      <c r="I14">
+        <v>0.005998206639133552</v>
+      </c>
+      <c r="J14">
+        <v>0.006028138379178328</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.14938</v>
+      </c>
+      <c r="N14">
+        <v>0.44814</v>
+      </c>
+      <c r="O14">
+        <v>0.2842945259315509</v>
+      </c>
+      <c r="P14">
+        <v>0.3365346706407406</v>
+      </c>
+      <c r="Q14">
+        <v>0.04440071533333333</v>
+      </c>
+      <c r="R14">
+        <v>0.399606438</v>
+      </c>
+      <c r="S14">
+        <v>0.001705257312911954</v>
+      </c>
+      <c r="T14">
+        <v>0.002028677564013586</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.2972333333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.8917</v>
+      </c>
+      <c r="I15">
+        <v>0.005998206639133552</v>
+      </c>
+      <c r="J15">
+        <v>0.006028138379178328</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.131369</v>
+      </c>
+      <c r="N15">
+        <v>0.394107</v>
+      </c>
+      <c r="O15">
+        <v>0.2500166526784168</v>
+      </c>
+      <c r="P15">
+        <v>0.2959581145227169</v>
+      </c>
+      <c r="Q15">
+        <v>0.03904724576666666</v>
+      </c>
+      <c r="R15">
+        <v>0.3514252119</v>
+      </c>
+      <c r="S15">
+        <v>0.001499651545989627</v>
+      </c>
+      <c r="T15">
+        <v>0.001784076468783644</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.2972333333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.8917</v>
+      </c>
+      <c r="I16">
+        <v>0.005998206639133552</v>
+      </c>
+      <c r="J16">
+        <v>0.006028138379178328</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.244692</v>
+      </c>
+      <c r="N16">
+        <v>0.489384</v>
+      </c>
+      <c r="O16">
+        <v>0.4656888213900324</v>
+      </c>
+      <c r="P16">
+        <v>0.3675072148365425</v>
+      </c>
+      <c r="Q16">
+        <v>0.07273061880000001</v>
+      </c>
+      <c r="R16">
+        <v>0.4363837128</v>
+      </c>
+      <c r="S16">
+        <v>0.002793297780231972</v>
+      </c>
+      <c r="T16">
+        <v>0.002215384346381097</v>
       </c>
     </row>
   </sheetData>
